--- a/Regression Data.xlsx
+++ b/Regression Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-30700" yWindow="3380" windowWidth="25040" windowHeight="16900" tabRatio="736"/>
+    <workbookView xWindow="-30700" yWindow="3380" windowWidth="25040" windowHeight="16900" tabRatio="736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="17" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId16"/>
-    <pivotCache cacheId="16" r:id="rId17"/>
+    <pivotCache cacheId="19" r:id="rId16"/>
+    <pivotCache cacheId="20" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -2241,11 +2241,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000_ ;\-#,##0.0000\ "/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000_ ;\-#,##0.0000\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2397,8 +2397,8 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2408,8 +2408,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2418,23 +2418,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2511,6 +2511,64 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="#,##0.0000_ ;\-#,##0.0000\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2535,7 +2593,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -2572,64 +2630,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="#,##0.0000_ ;\-#,##0.0000\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -2763,11 +2763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="60"/>
-        <c:axId val="2114456408"/>
-        <c:axId val="2118486264"/>
+        <c:axId val="2119871160"/>
+        <c:axId val="2122851720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114456408"/>
+        <c:axId val="2119871160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +2776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118486264"/>
+        <c:crossAx val="2122851720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2784,7 +2784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118486264"/>
+        <c:axId val="2122851720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,7 +2801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114456408"/>
+        <c:crossAx val="2119871160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2960,11 +2960,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="60"/>
-        <c:axId val="2123573048"/>
-        <c:axId val="2119870552"/>
+        <c:axId val="2074655368"/>
+        <c:axId val="2123125352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123573048"/>
+        <c:axId val="2074655368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2973,7 +2973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119870552"/>
+        <c:crossAx val="2123125352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2981,7 +2981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119870552"/>
+        <c:axId val="2123125352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,7 +2998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123573048"/>
+        <c:crossAx val="2074655368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3119,11 +3119,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107276392"/>
-        <c:axId val="2108766120"/>
+        <c:axId val="2131916072"/>
+        <c:axId val="2049493256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107276392"/>
+        <c:axId val="2131916072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3132,7 +3132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108766120"/>
+        <c:crossAx val="2049493256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3140,7 +3140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108766120"/>
+        <c:axId val="2049493256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,7 +3150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107276392"/>
+        <c:crossAx val="2131916072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3215,11 +3215,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Regressions by Team - One var'!$C$2</c:f>
+              <c:f>'Regressions by Team - One var'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prior_Attendance</c:v>
+                  <c:v>Park_Age</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3231,205 +3231,205 @@
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>SEA</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ANA</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>BOS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DET</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PHI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HOU</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CLE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ARI</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>NYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MIL</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SLN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BAL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>OAK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TBA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>NYA</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>TEX</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MIA</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SDN</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LAN</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CHN</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TOR</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>FLO</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>KCA</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>MON</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>WAS</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>ATL</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>BAL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BOS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CHA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CHN</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="27">
                   <c:v>CIN</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>CLE</c:v>
+                <c:pt idx="28">
+                  <c:v>PIT</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="29">
                   <c:v>COL</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>DET</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FLO</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>HOU</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>KCA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>LAN</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MIA</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>MIL</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>MIN</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>MON</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>NYA</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>NYN</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>OAK</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>PHI</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>PIT</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>SDN</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>SEA</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>SFN</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>SLN</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>TBA</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>TEX</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>TOR</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>WAS</c:v>
+                  <c:v>CHA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Regressions by Team - One var'!$C$4:$C$35</c:f>
+              <c:f>'Regressions by Team - One var'!$G$4:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.236108458956905</c:v>
+                  <c:v>0.450994119428591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.123249377599112</c:v>
+                  <c:v>0.43418004535168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0283561083487207</c:v>
+                  <c:v>0.380367888176739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0487853264150476</c:v>
+                  <c:v>0.349764216910258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.467767373753392</c:v>
+                  <c:v>0.346759409267675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22444336830817</c:v>
+                  <c:v>0.339828760254387</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.190811403055841</c:v>
+                  <c:v>0.22180689106949</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0649059548124025</c:v>
+                  <c:v>0.189327469502954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.260772152700879</c:v>
+                  <c:v>0.169671024710962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.125681620980672</c:v>
+                  <c:v>0.157031166354434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.295385002035586</c:v>
+                  <c:v>0.118237526368878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.061080719465377</c:v>
+                  <c:v>0.0853892588344315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.300717487292029</c:v>
+                  <c:v>0.078791093136122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0471470293549076</c:v>
+                  <c:v>0.0780871164489472</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0677399859247845</c:v>
+                  <c:v>0.0748824932841373</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00374570306725324</c:v>
+                  <c:v>0.0621576026075875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.100827857601319</c:v>
+                  <c:v>0.0572626939739207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.232353989617958</c:v>
+                  <c:v>0.042893193027867</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0263543889036669</c:v>
+                  <c:v>0.0343986485129594</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14431639199451</c:v>
+                  <c:v>0.0334588611264949</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.226614152472057</c:v>
+                  <c:v>0.0313979248198313</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0258833605849029</c:v>
+                  <c:v>0.0256165404286792</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.342799618124587</c:v>
+                  <c:v>0.0240768733702454</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.058710972745756</c:v>
+                  <c:v>0.0226192535573782</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0642322573995439</c:v>
+                  <c:v>0.0200398488188521</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.355693707411185</c:v>
+                  <c:v>0.0125194966974904</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.142473622988319</c:v>
+                  <c:v>0.00783337532523408</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.117477671087809</c:v>
+                  <c:v>0.00629899943918537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.082901745072577</c:v>
+                  <c:v>0.00622876061154844</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0676754901806815</c:v>
+                  <c:v>0.0052456775976585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0866892285630657</c:v>
+                  <c:v>0.00316320481972732</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0820069354131304</c:v>
+                  <c:v>0.00126248255677547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3444,11 +3444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="73"/>
-        <c:axId val="2146456600"/>
-        <c:axId val="2049163320"/>
+        <c:axId val="-2147341384"/>
+        <c:axId val="2123888888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146456600"/>
+        <c:axId val="-2147341384"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3457,7 +3457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2049163320"/>
+        <c:crossAx val="2123888888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3466,7 +3466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2049163320"/>
+        <c:axId val="2123888888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3476,7 +3476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146456600"/>
+        <c:crossAx val="-2147341384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3532,7 +3532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CLE</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3568,19 +3568,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.260772152700879</c:v>
+                  <c:v>0.123249377599112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0954231053679377</c:v>
+                  <c:v>0.101502533314394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0458214662356587</c:v>
+                  <c:v>0.0272358292391453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0311579623200133</c:v>
+                  <c:v>0.0660733964424063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22180689106949</c:v>
+                  <c:v>0.169671024710962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,11 +3595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2052126088"/>
-        <c:axId val="2111545320"/>
+        <c:axId val="2119675336"/>
+        <c:axId val="2114130408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2052126088"/>
+        <c:axId val="2119675336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3608,7 +3608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111545320"/>
+        <c:crossAx val="2114130408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3616,7 +3616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111545320"/>
+        <c:axId val="2114130408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,7 +3627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052126088"/>
+        <c:crossAx val="2119675336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3908,11 +3908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2131198936"/>
-        <c:axId val="2131200344"/>
+        <c:axId val="2122891960"/>
+        <c:axId val="2114689832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131198936"/>
+        <c:axId val="2122891960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,7 +3921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131200344"/>
+        <c:crossAx val="2114689832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3930,7 +3930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131200344"/>
+        <c:axId val="2114689832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3941,7 +3941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131198936"/>
+        <c:crossAx val="2122891960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4205,11 +4205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="60"/>
-        <c:axId val="2110210504"/>
-        <c:axId val="2109061000"/>
+        <c:axId val="2115251240"/>
+        <c:axId val="2115588664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110210504"/>
+        <c:axId val="2115251240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +4228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109061000"/>
+        <c:crossAx val="2115588664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4237,7 +4237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109061000"/>
+        <c:axId val="2115588664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4264,7 +4264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110210504"/>
+        <c:crossAx val="2115251240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4572,7 +4572,7 @@
         <s v="WAS"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Prior_Attendance" numFmtId="168">
+    <cacheField name="Prior_Attendance" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.7457030672532398E-3" maxValue="0.467767373753392" count="32">
         <n v="0.23610845895690499"/>
         <n v="0.123249377599112"/>
@@ -4608,7 +4608,7 @@
         <n v="8.2006935413130394E-2"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Prior_Wins" numFmtId="168">
+    <cacheField name="Prior_Wins" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.44361157985698E-5" maxValue="0.35360372529319001" count="32">
         <n v="3.4748253458329298E-2"/>
         <n v="0.101502533314394"/>
@@ -4644,13 +4644,13 @@
         <n v="0.22595774209123301"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Current_Wins" numFmtId="168">
+    <cacheField name="Current_Wins" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.4780466511675603E-4" maxValue="0.114076568903168"/>
     </cacheField>
-    <cacheField name="Team_Salary" numFmtId="168">
+    <cacheField name="Team_Salary" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1074062268875699E-3" maxValue="0.429208043514272"/>
     </cacheField>
-    <cacheField name="Park_Age" numFmtId="168">
+    <cacheField name="Park_Age" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.26248255677547E-3" maxValue="0.45099411942859102"/>
     </cacheField>
   </cacheFields>
@@ -9456,7 +9456,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B37" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -9496,7 +9496,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="168" showAll="0">
+    <pivotField numFmtId="165" showAll="0">
       <items count="33">
         <item x="15"/>
         <item x="21"/>
@@ -9533,7 +9533,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="168" showAll="0">
+    <pivotField dataField="1" numFmtId="165" showAll="0">
       <items count="33">
         <item x="14"/>
         <item x="2"/>
@@ -9570,9 +9570,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -9694,7 +9694,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:G197" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -10376,23 +10376,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B5:D10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B5:D10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="3">
-    <tableColumn id="1" name="Variable" dataDxfId="2"/>
-    <tableColumn id="2" name="R-Square" dataDxfId="1">
+    <tableColumn id="1" name="Variable" dataDxfId="6"/>
+    <tableColumn id="2" name="R-Square" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP($C$3,'Regressions by Team - One var'!$B$3:$G$35,MATCH(Dashboard!$B6,'Regressions by Team - One var'!$B$3:$G$3,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Rank" dataDxfId="0"/>
+    <tableColumn id="3" name="Rank" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B17:C24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B17:C24" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" name="All Team" dataDxfId="8"/>
-    <tableColumn id="2" name="R-Square" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="1" name="All Team" dataDxfId="1"/>
+    <tableColumn id="2" name="R-Square" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10722,7 +10722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -11164,8 +11164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12095,7 +12095,7 @@
   <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="B3:H11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12323,7 +12323,7 @@
   <dimension ref="B2:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28856,8 +28856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28901,770 +28901,770 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
-        <v>0.23610845895690499</v>
+        <v>0.355693707411185</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP($B4,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.4748253458329298E-2</v>
+        <v>0.26148511770805799</v>
       </c>
       <c r="E4" s="3">
         <f ca="1">VLOOKUP($B4,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.43194347263045E-2</v>
+        <v>4.9990485321495103E-2</v>
       </c>
       <c r="F4" s="3">
         <f ca="1">VLOOKUP($B4,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.429208043514272</v>
+        <v>1.37359893924206E-2</v>
       </c>
       <c r="G4" s="3">
         <f ca="1">VLOOKUP($B4,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.43418004535167998</v>
+        <v>0.45099411942859102</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>0.123249377599112</v>
+        <v>0.23610845895690499</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP($B5,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.101502533314394</v>
+        <v>3.4748253458329298E-2</v>
       </c>
       <c r="E5" s="3">
         <f ca="1">VLOOKUP($B5,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.72358292391453E-2</v>
+        <v>2.43194347263045E-2</v>
       </c>
       <c r="F5" s="3">
         <f ca="1">VLOOKUP($B5,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>6.6073396442406299E-2</v>
+        <v>0.429208043514272</v>
       </c>
       <c r="G5" s="3">
         <f ca="1">VLOOKUP($B5,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.16967102471096199</v>
+        <v>0.43418004535167998</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>2.83561083487207E-2</v>
+        <v>0.467767373753392</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP($B6,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.2675787464522001E-4</v>
+        <v>0.13180144848421799</v>
       </c>
       <c r="E6" s="3">
         <f ca="1">VLOOKUP($B6,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.2078049391050401E-3</v>
+        <v>5.0433164470545903E-3</v>
       </c>
       <c r="F6" s="3">
         <f ca="1">VLOOKUP($B6,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.1074062268875699E-3</v>
+        <v>0.36679871545931902</v>
       </c>
       <c r="G6" s="3">
         <f ca="1">VLOOKUP($B6,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.8333753252340793E-3</v>
+        <v>0.380367888176739</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>4.8785326415047597E-2</v>
+        <v>0.29538500203558599</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP($B7,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.8890408938049299E-2</v>
+        <v>0.35027017223540402</v>
       </c>
       <c r="E7" s="3">
         <f ca="1">VLOOKUP($B7,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.0638793100887599E-2</v>
+        <v>0.114076568903168</v>
       </c>
       <c r="F7" s="3">
         <f ca="1">VLOOKUP($B7,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.17293665192521E-2</v>
+        <v>0.41213526108460302</v>
       </c>
       <c r="G7" s="3">
         <f ca="1">VLOOKUP($B7,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.8791093136121995E-2</v>
+        <v>0.349764216910258</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
-        <v>0.467767373753392</v>
+        <v>0.34279961812458698</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP($B8,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.13180144848421799</v>
+        <v>0.35360372529319001</v>
       </c>
       <c r="E8" s="3">
         <f ca="1">VLOOKUP($B8,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>5.0433164470545903E-3</v>
+        <v>2.61188586958882E-2</v>
       </c>
       <c r="F8" s="3">
         <f ca="1">VLOOKUP($B8,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.36679871545931902</v>
+        <v>0.220285958154154</v>
       </c>
       <c r="G8" s="3">
         <f ca="1">VLOOKUP($B8,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.380367888176739</v>
+        <v>0.34675940926767501</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>0.22444336830816999</v>
+        <v>0.30071748729202902</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP($B9,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.8552598579099999E-2</v>
+        <v>0.353463245920904</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">VLOOKUP($B9,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.3557580426624901E-2</v>
+        <v>6.3768246404395004E-2</v>
       </c>
       <c r="F9" s="3">
         <f ca="1">VLOOKUP($B9,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>6.5144971584295205E-2</v>
+        <v>0.249922288935814</v>
       </c>
       <c r="G9" s="3">
         <f ca="1">VLOOKUP($B9,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.26248255677547E-3</v>
+        <v>0.33982876025438702</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>0.19081140305584099</v>
+        <v>0.260772152700879</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP($B10,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.11729908856113801</v>
+        <v>9.5423105367937702E-2</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">VLOOKUP($B10,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.20134964361266E-2</v>
+        <v>4.5821466235658699E-2</v>
       </c>
       <c r="F10" s="3">
         <f ca="1">VLOOKUP($B10,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>9.0680757787554897E-2</v>
+        <v>3.1157962320013301E-2</v>
       </c>
       <c r="G10" s="3">
         <f ca="1">VLOOKUP($B10,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.1397924819831301E-2</v>
+        <v>0.22180689106949</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>6.4905954812402494E-2</v>
+        <v>0.232353989617958</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP($B11,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.5311527180413603E-2</v>
+        <v>4.2672331545196002E-4</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">VLOOKUP($B11,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.5173785869859501E-3</v>
+        <v>8.3728937931227907E-3</v>
       </c>
       <c r="F11" s="3">
         <f ca="1">VLOOKUP($B11,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.2819382440372698E-2</v>
+        <v>0.30632978140212203</v>
       </c>
       <c r="G11" s="3">
         <f ca="1">VLOOKUP($B11,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>6.2989994391853699E-3</v>
+        <v>0.18932746950295401</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>0.260772152700879</v>
+        <v>0.123249377599112</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP($B12,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>9.5423105367937702E-2</v>
+        <v>0.101502533314394</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">VLOOKUP($B12,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.5821466235658699E-2</v>
+        <v>2.72358292391453E-2</v>
       </c>
       <c r="F12" s="3">
         <f ca="1">VLOOKUP($B12,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.1157962320013301E-2</v>
+        <v>6.6073396442406299E-2</v>
       </c>
       <c r="G12" s="3">
         <f ca="1">VLOOKUP($B12,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.22180689106949</v>
+        <v>0.16967102471096199</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
-        <v>0.12568162098067201</v>
+        <v>0.22661415247205699</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP($B13,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.9034307573555104E-2</v>
+        <v>0.260319308789764</v>
       </c>
       <c r="E13" s="3">
         <f ca="1">VLOOKUP($B13,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.6139639532526101E-3</v>
+        <v>1.19962135078115E-2</v>
       </c>
       <c r="F13" s="3">
         <f ca="1">VLOOKUP($B13,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.112488030516742</v>
+        <v>0.16585221160875799</v>
       </c>
       <c r="G13" s="3">
         <f ca="1">VLOOKUP($B13,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>5.2456775976584998E-3</v>
+        <v>0.15703116635443401</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>0.29538500203558599</v>
+        <v>0.100827857601319</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP($B14,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.35027017223540402</v>
+        <v>0.18322256224743599</v>
       </c>
       <c r="E14" s="3">
         <f ca="1">VLOOKUP($B14,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.114076568903168</v>
+        <v>5.95231893784718E-2</v>
       </c>
       <c r="F14" s="3">
         <f ca="1">VLOOKUP($B14,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.41213526108460302</v>
+        <v>0.19521248041425901</v>
       </c>
       <c r="G14" s="3">
         <f ca="1">VLOOKUP($B14,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.349764216910258</v>
+        <v>0.11823752636887799</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
-        <v>6.1080719465376999E-2</v>
+        <v>0.117477671087809</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP($B15,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>6.7020430789065402E-2</v>
+        <v>4.5091443899675102E-4</v>
       </c>
       <c r="E15" s="3">
         <f ca="1">VLOOKUP($B15,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.6585925349619099E-2</v>
+        <v>5.8788688592226503E-3</v>
       </c>
       <c r="F15" s="3">
         <f ca="1">VLOOKUP($B15,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.8546911038763801E-2</v>
+        <v>5.7529825336164901E-2</v>
       </c>
       <c r="G15" s="3">
         <f ca="1">VLOOKUP($B15,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.4076873370245399E-2</v>
+        <v>8.5389258834431506E-2</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>0.30071748729202902</v>
+        <v>4.8785326415047597E-2</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP($B16,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.353463245920904</v>
+        <v>1.8890408938049299E-2</v>
       </c>
       <c r="E16" s="3">
         <f ca="1">VLOOKUP($B16,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>6.3768246404395004E-2</v>
+        <v>1.0638793100887599E-2</v>
       </c>
       <c r="F16" s="3">
         <f ca="1">VLOOKUP($B16,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.249922288935814</v>
+        <v>2.17293665192521E-2</v>
       </c>
       <c r="G16" s="3">
         <f ca="1">VLOOKUP($B16,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.33982876025438702</v>
+        <v>7.8791093136121995E-2</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3">
-        <v>4.7147029354907603E-2</v>
+        <v>2.5883360584902902E-2</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP($B17,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.5109954797989598E-2</v>
+        <v>9.9077275459362804E-2</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">VLOOKUP($B17,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>6.4780466511675603E-4</v>
+        <v>2.03987125105882E-2</v>
       </c>
       <c r="F17" s="3">
         <f ca="1">VLOOKUP($B17,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.6169882291436798E-2</v>
+        <v>1.0766577236735899E-2</v>
       </c>
       <c r="G17" s="3">
         <f ca="1">VLOOKUP($B17,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.2619253557378202E-2</v>
+        <v>7.8087116448947197E-2</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
-        <v>6.7739985924784502E-2</v>
+        <v>8.2901745072576999E-2</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP($B18,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.44361157985698E-5</v>
+        <v>7.0614072550015894E-2</v>
       </c>
       <c r="E18" s="3">
         <f ca="1">VLOOKUP($B18,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.2888813301717201E-2</v>
+        <v>2.2050892672709401E-2</v>
       </c>
       <c r="F18" s="3">
         <f ca="1">VLOOKUP($B18,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.5153858512837499E-2</v>
+        <v>7.9859890905004102E-2</v>
       </c>
       <c r="G18" s="3">
         <f ca="1">VLOOKUP($B18,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.3458861126494897E-2</v>
+        <v>7.4882493284137305E-2</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
-        <v>3.7457030672532398E-3</v>
+        <v>0.14431639199450999</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP($B19,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.2893193027869599E-2</v>
+        <v>1.29941878670234E-2</v>
       </c>
       <c r="E19" s="3">
         <f ca="1">VLOOKUP($B19,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>5.5172150859887401E-2</v>
+        <v>7.4892480401845497E-3</v>
       </c>
       <c r="F19" s="3">
         <f ca="1">VLOOKUP($B19,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.2893193027868301E-2</v>
+        <v>4.8089363587158297E-2</v>
       </c>
       <c r="G19" s="3">
         <f ca="1">VLOOKUP($B19,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.2893193027867003E-2</v>
+        <v>6.21576026075875E-2</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3">
-        <v>0.100827857601319</v>
+        <v>6.7675490180681502E-2</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP($B20,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.18322256224743599</v>
+        <v>0.12670857556460099</v>
       </c>
       <c r="E20" s="3">
         <f ca="1">VLOOKUP($B20,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>5.95231893784718E-2</v>
+        <v>8.9453317666708903E-4</v>
       </c>
       <c r="F20" s="3">
         <f ca="1">VLOOKUP($B20,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.19521248041425901</v>
+        <v>7.77427429841588E-2</v>
       </c>
       <c r="G20" s="3">
         <f ca="1">VLOOKUP($B20,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.11823752636887799</v>
+        <v>5.7262693973920697E-2</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
-        <v>0.232353989617958</v>
+        <v>3.7457030672532398E-3</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP($B21,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.2672331545196002E-4</v>
+        <v>4.2893193027869599E-2</v>
       </c>
       <c r="E21" s="3">
         <f ca="1">VLOOKUP($B21,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>8.3728937931227907E-3</v>
+        <v>5.5172150859887401E-2</v>
       </c>
       <c r="F21" s="3">
         <f ca="1">VLOOKUP($B21,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.30632978140212203</v>
+        <v>4.2893193027868301E-2</v>
       </c>
       <c r="G21" s="3">
         <f ca="1">VLOOKUP($B21,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.18932746950295401</v>
+        <v>4.2893193027867003E-2</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3">
-        <v>2.6354388903666901E-2</v>
+        <v>6.4232257399543899E-2</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP($B22,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.9149970172316301E-2</v>
+        <v>1.8514746054762801E-2</v>
       </c>
       <c r="E22" s="3">
         <f ca="1">VLOOKUP($B22,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.27071980580963E-3</v>
+        <v>1.1614797565521799E-2</v>
       </c>
       <c r="F22" s="3">
         <f ca="1">VLOOKUP($B22,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.1912731446074102E-2</v>
+        <v>2.6903704619886299E-2</v>
       </c>
       <c r="G22" s="3">
         <f ca="1">VLOOKUP($B22,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.00398488188521E-2</v>
+        <v>3.4398648512959401E-2</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
-        <v>0.14431639199450999</v>
+        <v>6.7739985924784502E-2</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP($B23,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.29941878670234E-2</v>
+        <v>2.44361157985698E-5</v>
       </c>
       <c r="E23" s="3">
         <f ca="1">VLOOKUP($B23,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.4892480401845497E-3</v>
+        <v>2.2888813301717201E-2</v>
       </c>
       <c r="F23" s="3">
         <f ca="1">VLOOKUP($B23,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.8089363587158297E-2</v>
+        <v>2.5153858512837499E-2</v>
       </c>
       <c r="G23" s="3">
         <f ca="1">VLOOKUP($B23,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>6.21576026075875E-2</v>
+        <v>3.3458861126494897E-2</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3">
-        <v>0.22661415247205699</v>
+        <v>0.19081140305584099</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP($B24,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.260319308789764</v>
+        <v>0.11729908856113801</v>
       </c>
       <c r="E24" s="3">
         <f ca="1">VLOOKUP($B24,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.19962135078115E-2</v>
+        <v>1.20134964361266E-2</v>
       </c>
       <c r="F24" s="3">
         <f ca="1">VLOOKUP($B24,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.16585221160875799</v>
+        <v>9.0680757787554897E-2</v>
       </c>
       <c r="G24" s="3">
         <f ca="1">VLOOKUP($B24,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.15703116635443401</v>
+        <v>3.1397924819831301E-2</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3">
-        <v>2.5883360584902902E-2</v>
+        <v>8.6689228563065698E-2</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP($B25,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>9.9077275459362804E-2</v>
+        <v>1.9724180900533099E-3</v>
       </c>
       <c r="E25" s="3">
         <f ca="1">VLOOKUP($B25,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.03987125105882E-2</v>
+        <v>2.2318702720110301E-2</v>
       </c>
       <c r="F25" s="3">
         <f ca="1">VLOOKUP($B25,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.0766577236735899E-2</v>
+        <v>7.6119447214258104E-2</v>
       </c>
       <c r="G25" s="3">
         <f ca="1">VLOOKUP($B25,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.8087116448947197E-2</v>
+        <v>2.56165404286792E-2</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3">
-        <v>0.34279961812458698</v>
+        <v>6.1080719465376999E-2</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP($B26,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.35360372529319001</v>
+        <v>6.7020430789065402E-2</v>
       </c>
       <c r="E26" s="3">
         <f ca="1">VLOOKUP($B26,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.61188586958882E-2</v>
+        <v>1.6585925349619099E-2</v>
       </c>
       <c r="F26" s="3">
         <f ca="1">VLOOKUP($B26,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.220285958154154</v>
+        <v>3.8546911038763801E-2</v>
       </c>
       <c r="G26" s="3">
         <f ca="1">VLOOKUP($B26,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.34675940926767501</v>
+        <v>2.4076873370245399E-2</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3">
-        <v>5.8710972745755999E-2</v>
+        <v>4.7147029354907603E-2</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP($B27,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.6806389482624597E-2</v>
+        <v>2.5109954797989598E-2</v>
       </c>
       <c r="E27" s="3">
         <f ca="1">VLOOKUP($B27,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.9536389524492099E-2</v>
+        <v>6.4780466511675603E-4</v>
       </c>
       <c r="F27" s="3">
         <f ca="1">VLOOKUP($B27,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>9.8676922073547405E-2</v>
+        <v>1.6169882291436798E-2</v>
       </c>
       <c r="G27" s="3">
         <f ca="1">VLOOKUP($B27,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>6.2287606115484402E-3</v>
+        <v>2.2619253557378202E-2</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3">
-        <v>6.4232257399543899E-2</v>
+        <v>2.6354388903666901E-2</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP($B28,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.8514746054762801E-2</v>
+        <v>2.9149970172316301E-2</v>
       </c>
       <c r="E28" s="3">
         <f ca="1">VLOOKUP($B28,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.1614797565521799E-2</v>
+        <v>2.27071980580963E-3</v>
       </c>
       <c r="F28" s="3">
         <f ca="1">VLOOKUP($B28,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.6903704619886299E-2</v>
+        <v>7.1912731446074102E-2</v>
       </c>
       <c r="G28" s="3">
         <f ca="1">VLOOKUP($B28,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.4398648512959401E-2</v>
+        <v>2.00398488188521E-2</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3">
-        <v>0.355693707411185</v>
+        <v>8.2006935413130394E-2</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP($B29,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.26148511770805799</v>
+        <v>0.22595774209123301</v>
       </c>
       <c r="E29" s="3">
         <f ca="1">VLOOKUP($B29,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.9990485321495103E-2</v>
+        <v>2.7276191041981201E-2</v>
       </c>
       <c r="F29" s="3">
         <f ca="1">VLOOKUP($B29,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.37359893924206E-2</v>
+        <v>0.165459146561697</v>
       </c>
       <c r="G29" s="3">
         <f ca="1">VLOOKUP($B29,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.45099411942859102</v>
+        <v>1.25194966974904E-2</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>0.142473622988319</v>
+        <v>2.83561083487207E-2</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP($B30,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.138636935495208</v>
+        <v>1.2675787464522001E-4</v>
       </c>
       <c r="E30" s="3">
         <f ca="1">VLOOKUP($B30,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.1316108380960203E-2</v>
+        <v>2.2078049391050401E-3</v>
       </c>
       <c r="F30" s="3">
         <f ca="1">VLOOKUP($B30,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>5.0567748860571903E-3</v>
+        <v>1.1074062268875699E-3</v>
       </c>
       <c r="G30" s="3">
         <f ca="1">VLOOKUP($B30,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>3.1632048197273201E-3</v>
+        <v>7.8333753252340793E-3</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
-        <v>0.117477671087809</v>
+        <v>6.4905954812402494E-2</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP($B31,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>4.5091443899675102E-4</v>
+        <v>3.5311527180413603E-2</v>
       </c>
       <c r="E31" s="3">
         <f ca="1">VLOOKUP($B31,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>5.8788688592226503E-3</v>
+        <v>4.5173785869859501E-3</v>
       </c>
       <c r="F31" s="3">
         <f ca="1">VLOOKUP($B31,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>5.7529825336164901E-2</v>
+        <v>3.2819382440372698E-2</v>
       </c>
       <c r="G31" s="3">
         <f ca="1">VLOOKUP($B31,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>8.5389258834431506E-2</v>
+        <v>6.2989994391853699E-3</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C32" s="3">
-        <v>8.2901745072576999E-2</v>
+        <v>5.8710972745755999E-2</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP($B32,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.0614072550015894E-2</v>
+        <v>4.6806389482624597E-2</v>
       </c>
       <c r="E32" s="3">
         <f ca="1">VLOOKUP($B32,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.2050892672709401E-2</v>
+        <v>2.9536389524492099E-2</v>
       </c>
       <c r="F32" s="3">
         <f ca="1">VLOOKUP($B32,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.9859890905004102E-2</v>
+        <v>9.8676922073547405E-2</v>
       </c>
       <c r="G32" s="3">
         <f ca="1">VLOOKUP($B32,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.4882493284137305E-2</v>
+        <v>6.2287606115484402E-3</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C33" s="3">
-        <v>6.7675490180681502E-2</v>
+        <v>0.12568162098067201</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP($B33,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.12670857556460099</v>
+        <v>7.9034307573555104E-2</v>
       </c>
       <c r="E33" s="3">
         <f ca="1">VLOOKUP($B33,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>8.9453317666708903E-4</v>
+        <v>3.6139639532526101E-3</v>
       </c>
       <c r="F33" s="3">
         <f ca="1">VLOOKUP($B33,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.77427429841588E-2</v>
+        <v>0.112488030516742</v>
       </c>
       <c r="G33" s="3">
         <f ca="1">VLOOKUP($B33,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>5.7262693973920697E-2</v>
+        <v>5.2456775976584998E-3</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="3">
-        <v>8.6689228563065698E-2</v>
+        <v>0.142473622988319</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP($B34,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.9724180900533099E-3</v>
+        <v>0.138636935495208</v>
       </c>
       <c r="E34" s="3">
         <f ca="1">VLOOKUP($B34,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.2318702720110301E-2</v>
+        <v>3.1316108380960203E-2</v>
       </c>
       <c r="F34" s="3">
         <f ca="1">VLOOKUP($B34,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>7.6119447214258104E-2</v>
+        <v>5.0567748860571903E-3</v>
       </c>
       <c r="G34" s="3">
         <f ca="1">VLOOKUP($B34,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.56165404286792E-2</v>
+        <v>3.1632048197273201E-3</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3">
-        <v>8.2006935413130394E-2</v>
+        <v>0.22444336830816999</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP($B35,INDIRECT(D$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.22595774209123301</v>
+        <v>4.8552598579099999E-2</v>
       </c>
       <c r="E35" s="3">
         <f ca="1">VLOOKUP($B35,INDIRECT(E$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>2.7276191041981201E-2</v>
+        <v>4.3557580426624901E-2</v>
       </c>
       <c r="F35" s="3">
         <f ca="1">VLOOKUP($B35,INDIRECT(F$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>0.165459146561697</v>
+        <v>6.5144971584295205E-2</v>
       </c>
       <c r="G35" s="3">
         <f ca="1">VLOOKUP($B35,INDIRECT(G$2&amp;"!$A$2:$B$33"),2,FALSE)</f>
-        <v>1.25194966974904E-2</v>
+        <v>1.26248255677547E-3</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -29695,23 +29695,23 @@
     <row r="38" spans="2:7">
       <c r="C38" t="str">
         <f ca="1">OFFSET(C$2,MATCH(C$37,C$4:C$35,FALSE),-1*(MATCH(C$2,$C$2:$G$2,FALSE)))</f>
-        <v>BAL</v>
+        <v>ANA</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">OFFSET(D$2,MATCH(D$37,D$4:D$35,FALSE),-1*(MATCH(D$2,$C$2:$G$2,FALSE)))</f>
-        <v>OAK</v>
+        <v>DET</v>
       </c>
       <c r="E38" t="str">
         <f ca="1">OFFSET(E$2,MATCH(E$37,E$4:E$35,FALSE),-1*(MATCH(E$2,$C$2:$G$2,FALSE)))</f>
-        <v>COL</v>
+        <v>BOS</v>
       </c>
       <c r="F38" t="str">
         <f ca="1">OFFSET(F$2,MATCH(F$37,F$4:F$35,FALSE),-1*(MATCH(F$2,$C$2:$G$2,FALSE)))</f>
-        <v>Team</v>
+        <v>SEA</v>
       </c>
       <c r="G38" t="str">
         <f ca="1">OFFSET(G$2,MATCH(G$37,G$4:G$35,FALSE),-1*(MATCH(G$2,$C$2:$G$2,FALSE)))</f>
-        <v>SDN</v>
+        <v>Team</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -29721,6 +29721,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B4:G35">
+    <sortCondition descending="1" ref="G3"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
